--- a/Matriz Requisitos.xlsx
+++ b/Matriz Requisitos.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="1" r:id="rId1"/>
-    <sheet name="UC" sheetId="9" r:id="rId2"/>
+    <sheet name="UCxRF" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -95,75 +95,114 @@
     <t>RF-12</t>
   </si>
   <si>
-    <t>Nome do Caso de Uso
+    <t>Alterar Senha</t>
+  </si>
+  <si>
+    <t>UC-01</t>
+  </si>
+  <si>
+    <t>Gerenciar Usuários</t>
+  </si>
+  <si>
+    <t>UC-02</t>
+  </si>
+  <si>
+    <t>Gerenciar Unidades Executoras</t>
+  </si>
+  <si>
+    <t>UC-03</t>
+  </si>
+  <si>
+    <t>Gerenciar Nutrientes</t>
+  </si>
+  <si>
+    <t>UC-04</t>
+  </si>
+  <si>
+    <t>Gerenciar Exercícios</t>
+  </si>
+  <si>
+    <t>UC-05</t>
+  </si>
+  <si>
+    <t>Gerenciar Alimentos</t>
+  </si>
+  <si>
+    <t>UC-06</t>
+  </si>
+  <si>
+    <t>Gerenciar Modalidades de Ensino</t>
+  </si>
+  <si>
+    <t>UC-07</t>
+  </si>
+  <si>
+    <t>Gerenciar Referências Nutricionais</t>
+  </si>
+  <si>
+    <t>UC-08</t>
+  </si>
+  <si>
+    <t>Gerenciar Preparações</t>
+  </si>
+  <si>
+    <t>UC-09</t>
+  </si>
+  <si>
+    <t>Gerenciar Processos</t>
+  </si>
+  <si>
+    <t>UC-10</t>
+  </si>
+  <si>
+    <t>Gerenciar Cardápios</t>
+  </si>
+  <si>
+    <t>UC-11</t>
+  </si>
+  <si>
+    <t>Gerenciar Processos Centralizados</t>
+  </si>
+  <si>
+    <t>UC-12</t>
+  </si>
+  <si>
+    <t>UC-13</t>
+  </si>
+  <si>
+    <t>UC-14</t>
+  </si>
+  <si>
+    <t>Avaliar Processo</t>
+  </si>
+  <si>
+    <t>UC-15</t>
+  </si>
+  <si>
+    <t>UC-16</t>
+  </si>
+  <si>
+    <t>Gerenciar Tipos de Cardápios</t>
+  </si>
+  <si>
+    <t>Realizar Login</t>
+  </si>
+  <si>
+    <t>Realizar Logout</t>
+  </si>
+  <si>
+    <t>RF-13</t>
+  </si>
+  <si>
+    <t>Autenticação de Usuários</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Caso de Uso
 x
 Requisito Funcional</t>
-  </si>
-  <si>
-    <t>Listar Usuários</t>
-  </si>
-  <si>
-    <t>Cadastrar Usuário</t>
-  </si>
-  <si>
-    <t>Visualizar Usuário</t>
-  </si>
-  <si>
-    <t>Editar Usuário</t>
-  </si>
-  <si>
-    <t>Excluir Usuário</t>
-  </si>
-  <si>
-    <t>Alterar Senha</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Listar Unidades Executoras</t>
-  </si>
-  <si>
-    <t>Visualizar Unidade Executora</t>
-  </si>
-  <si>
-    <t>Cadastrar Unidade Executora</t>
-  </si>
-  <si>
-    <t>Editar</t>
-  </si>
-  <si>
-    <t>Excluir</t>
-  </si>
-  <si>
-    <t>Editar Unidade Executora</t>
-  </si>
-  <si>
-    <t>Excluir Unidade Executora</t>
-  </si>
-  <si>
-    <t>Listar</t>
-  </si>
-  <si>
-    <t>Visualizar</t>
-  </si>
-  <si>
-    <t>Cadastrar</t>
-  </si>
-  <si>
-    <t>Listar Nutrientes</t>
-  </si>
-  <si>
-    <t>Visualizar Nutriente</t>
-  </si>
-  <si>
-    <t>Cadastrar Nutriente</t>
-  </si>
-  <si>
-    <t>Editar Nutriente</t>
-  </si>
-  <si>
-    <t>Excluir Nutriente</t>
   </si>
 </sst>
 </file>
@@ -172,7 +211,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\R\F\-00"/>
-    <numFmt numFmtId="166" formatCode="&quot;UC-&quot;00&quot;.&quot;00"/>
+    <numFmt numFmtId="170" formatCode="&quot;UC-&quot;00"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -204,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,11 +251,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -226,38 +280,77 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -673,302 +766,480 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="7" customWidth="1"/>
-    <col min="3" max="14" width="3.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="7.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="5" customWidth="1"/>
+    <col min="3" max="14" width="3.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="156">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="156">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="11" t="str">
+      <c r="B1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="12" t="str">
         <f>RF!B2</f>
         <v>Gestão de Usuários</v>
       </c>
-      <c r="D1" s="11" t="str">
-        <f>RF!B3</f>
-        <v>Gestão de Unidades Executoras</v>
-      </c>
-      <c r="E1" s="11" t="str">
-        <f>RF!B4</f>
-        <v>Gestão de Nutrientes</v>
-      </c>
-      <c r="F1" s="11" t="str">
-        <f>RF!B5</f>
-        <v>Gestão de Exercícios</v>
-      </c>
-      <c r="G1" s="11" t="str">
-        <f>RF!B6</f>
-        <v>Gestão de Alimentos</v>
-      </c>
-      <c r="H1" s="11" t="str">
-        <f>RF!B7</f>
-        <v>Gestão de Modalidades de Ensino</v>
-      </c>
-      <c r="I1" s="11" t="str">
-        <f>RF!B8</f>
-        <v>Gestão de Referências Nutricionais</v>
-      </c>
-      <c r="J1" s="11" t="str">
-        <f>RF!B9</f>
-        <v>Gestão de Preparações</v>
-      </c>
-      <c r="K1" s="11" t="str">
-        <f>RF!B10</f>
-        <v>Gestão de Processos</v>
-      </c>
-      <c r="L1" s="11" t="str">
-        <f>RF!B11</f>
-        <v>Gestão de Cardápios</v>
-      </c>
-      <c r="M1" s="11" t="str">
-        <f>RF!B12</f>
-        <v>Centralização de Processos</v>
-      </c>
-      <c r="N1" s="11" t="str">
-        <f>RF!B13</f>
-        <v>Gestão de Tipos de Cardápios</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="30.75">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="12" t="s">
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="30.75">
+      <c r="A2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="8">
-        <v>101</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="O2" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="8">
-        <v>102</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="8">
-        <v>103</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="8">
-        <v>104</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="8">
-        <v>105</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="8">
-        <v>106</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="8">
-        <v>201</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="B6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="8">
-        <v>202</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="8">
-        <v>203</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="B7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="8">
-        <v>204</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="8">
-        <v>205</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="B9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="8">
-        <v>301</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="8">
-        <v>302</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="8">
-        <v>303</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="B12" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8">
-        <v>304</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8">
-        <v>305</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="B13" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="18"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="20"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -976,6 +1247,11 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:O18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
